--- a/EGE_krylov20_2024/18/18var01.xlsx
+++ b/EGE_krylov20_2024/18/18var01.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deveden\Documents\UnifiedStateExamination_IT\EGE_krylov20_2024\18\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C818DB-A6C2-4D37-ABB0-F451984BF641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8960"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="мон" sheetId="1" r:id="rId1"/>
+    <sheet name="мак" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -31,7 +43,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -41,6 +53,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -253,13 +277,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -518,23 +557,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>15</v>
       </c>
@@ -596,7 +635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>7</v>
       </c>
@@ -658,7 +697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>16</v>
       </c>
@@ -720,7 +759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" thickBot="1">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>14</v>
       </c>
@@ -782,7 +821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15" thickTop="1">
+    <row r="5" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>11</v>
       </c>
@@ -844,7 +883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>19</v>
       </c>
@@ -906,7 +945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>16</v>
       </c>
@@ -968,7 +1007,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>16</v>
       </c>
@@ -1030,7 +1069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15" thickBot="1">
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -1092,7 +1131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" thickTop="1">
+    <row r="10" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1154,7 +1193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>19</v>
       </c>
@@ -1216,7 +1255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1">
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>20</v>
       </c>
@@ -1278,7 +1317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" thickTop="1">
+    <row r="13" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1340,7 +1379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>16</v>
       </c>
@@ -1402,7 +1441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" thickBot="1">
+    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>16</v>
       </c>
@@ -1464,7 +1503,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" thickTop="1">
+    <row r="16" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>19</v>
       </c>
@@ -1526,7 +1565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>10</v>
       </c>
@@ -1588,7 +1627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -1650,7 +1689,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>13</v>
       </c>
@@ -1712,7 +1751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15" thickBot="1">
+    <row r="20" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1782,25 +1821,1593 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F5F311-FD8B-4333-B5F3-2E714DEC812A}">
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25:N25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <f>мон!A1</f>
+        <v>15</v>
+      </c>
+      <c r="B1" s="4">
+        <f>A1+мон!B1</f>
+        <v>18</v>
+      </c>
+      <c r="C1" s="4">
+        <f>B1+мон!C1</f>
+        <v>38</v>
+      </c>
+      <c r="D1" s="4">
+        <f>C1+мон!D1</f>
+        <v>47</v>
+      </c>
+      <c r="E1" s="4">
+        <f>D1+мон!E1</f>
+        <v>56</v>
+      </c>
+      <c r="F1" s="4">
+        <f>E1+мон!F1</f>
+        <v>71</v>
+      </c>
+      <c r="G1" s="4">
+        <f>F1+мон!G1</f>
+        <v>74</v>
+      </c>
+      <c r="H1" s="4">
+        <f>G1+мон!H1</f>
+        <v>82</v>
+      </c>
+      <c r="I1" s="4">
+        <f>H1+мон!I1</f>
+        <v>89</v>
+      </c>
+      <c r="J1" s="4">
+        <f>I1+мон!J1</f>
+        <v>94</v>
+      </c>
+      <c r="K1" s="4">
+        <f>J1+мон!K1</f>
+        <v>105</v>
+      </c>
+      <c r="L1" s="4">
+        <f>K1+мон!L1</f>
+        <v>111</v>
+      </c>
+      <c r="M1" s="4">
+        <f>L1+мон!M1</f>
+        <v>113</v>
+      </c>
+      <c r="N1" s="4">
+        <f>M1+мон!N1</f>
+        <v>130</v>
+      </c>
+      <c r="O1" s="4">
+        <f>N1+мон!O1</f>
+        <v>149</v>
+      </c>
+      <c r="P1" s="4">
+        <f>O1+мон!P1</f>
+        <v>161</v>
+      </c>
+      <c r="Q1" s="4">
+        <f>P1+мон!Q1</f>
+        <v>172</v>
+      </c>
+      <c r="R1" s="4">
+        <f>Q1+мон!R1</f>
+        <v>191</v>
+      </c>
+      <c r="S1" s="4">
+        <f>R1+мон!S1</f>
+        <v>194</v>
+      </c>
+      <c r="T1" s="4">
+        <f>S1+мон!T1</f>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <f>A1+мон!A2</f>
+        <v>22</v>
+      </c>
+      <c r="B2" s="5">
+        <f>MIN(B1,A2)+мон!B2</f>
+        <v>37</v>
+      </c>
+      <c r="C2" s="5">
+        <f>MIN(C1,B2)+мон!C2</f>
+        <v>54</v>
+      </c>
+      <c r="D2" s="5">
+        <f>MIN(D1,C2)+мон!D2</f>
+        <v>61</v>
+      </c>
+      <c r="E2" s="5">
+        <f>MIN(E1,D2)+мон!E2</f>
+        <v>62</v>
+      </c>
+      <c r="F2" s="5">
+        <f>MIN(F1,E2)+мон!F2</f>
+        <v>80</v>
+      </c>
+      <c r="G2" s="5">
+        <f>MIN(G1,F2)+мон!G2</f>
+        <v>91</v>
+      </c>
+      <c r="H2" s="5">
+        <f>MIN(H1,G2)+мон!H2</f>
+        <v>96</v>
+      </c>
+      <c r="I2" s="5">
+        <f>MIN(I1,H2)+мон!I2</f>
+        <v>97</v>
+      </c>
+      <c r="J2" s="5">
+        <f>MIN(J1,I2)+мон!J2</f>
+        <v>114</v>
+      </c>
+      <c r="K2" s="5">
+        <f>MIN(K1,J2)+мон!K2</f>
+        <v>113</v>
+      </c>
+      <c r="L2" s="5">
+        <f>MIN(L1,K2)+мон!L2</f>
+        <v>120</v>
+      </c>
+      <c r="M2" s="5">
+        <f>MIN(M1,L2)+мон!M2</f>
+        <v>133</v>
+      </c>
+      <c r="N2" s="5">
+        <f>MIN(N1,M2)+мон!N2</f>
+        <v>148</v>
+      </c>
+      <c r="O2" s="5">
+        <f>MIN(O1,N2)+мон!O2</f>
+        <v>154</v>
+      </c>
+      <c r="P2" s="5">
+        <f>MIN(P1,O2)+мон!P2</f>
+        <v>162</v>
+      </c>
+      <c r="Q2" s="5">
+        <f>MIN(Q1,P2)+мон!Q2</f>
+        <v>181</v>
+      </c>
+      <c r="R2" s="5">
+        <f>MIN(R1,Q2)+мон!R2</f>
+        <v>184</v>
+      </c>
+      <c r="S2" s="5">
+        <f>MIN(S1,R2)+мон!S2</f>
+        <v>197</v>
+      </c>
+      <c r="T2" s="5">
+        <f>MIN(T1,S2)+мон!T2</f>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <f>A2+мон!A3</f>
+        <v>38</v>
+      </c>
+      <c r="B3" s="5">
+        <f>MIN(B2,A3)+мон!B3</f>
+        <v>51</v>
+      </c>
+      <c r="C3" s="5">
+        <f>MIN(C2,B3)+мон!C3</f>
+        <v>69</v>
+      </c>
+      <c r="D3" s="5">
+        <f>MIN(D2,C3)+мон!D3</f>
+        <v>67</v>
+      </c>
+      <c r="E3" s="5">
+        <f>MIN(E2,D3)+мон!E3</f>
+        <v>80</v>
+      </c>
+      <c r="F3" s="5">
+        <f>MIN(F2,E3)+мон!F3</f>
+        <v>100</v>
+      </c>
+      <c r="G3" s="5">
+        <f>MIN(G2,F3)+мон!G3</f>
+        <v>99</v>
+      </c>
+      <c r="H3" s="5">
+        <f>MIN(H2,G3)+мон!H3</f>
+        <v>106</v>
+      </c>
+      <c r="I3" s="5">
+        <f>MIN(I2,H3)+мон!I3</f>
+        <v>113</v>
+      </c>
+      <c r="J3" s="5">
+        <f>MIN(J2,I3)+мон!J3</f>
+        <v>130</v>
+      </c>
+      <c r="K3" s="5">
+        <f>MIN(K2,J3)+мон!K3</f>
+        <v>128</v>
+      </c>
+      <c r="L3" s="5">
+        <f>MIN(L2,K3)+мон!L3</f>
+        <v>130</v>
+      </c>
+      <c r="M3" s="27">
+        <f>M2+мон!M3</f>
+        <v>153</v>
+      </c>
+      <c r="N3" s="5">
+        <f>MIN(N2,M3)+мон!N3</f>
+        <v>168</v>
+      </c>
+      <c r="O3" s="5">
+        <f>MIN(O2,N3)+мон!O3</f>
+        <v>163</v>
+      </c>
+      <c r="P3" s="5">
+        <f>MIN(P2,O3)+мон!P3</f>
+        <v>173</v>
+      </c>
+      <c r="Q3" s="5">
+        <f>MIN(Q2,P3)+мон!Q3</f>
+        <v>187</v>
+      </c>
+      <c r="R3" s="5">
+        <f>MIN(R2,Q3)+мон!R3</f>
+        <v>199</v>
+      </c>
+      <c r="S3" s="5">
+        <f>MIN(S2,R3)+мон!S3</f>
+        <v>205</v>
+      </c>
+      <c r="T3" s="8">
+        <f>MIN(T2,S3)+мон!T3</f>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <f>A3+мон!A4</f>
+        <v>52</v>
+      </c>
+      <c r="B4" s="5">
+        <f>MIN(B3,A4)+мон!B4</f>
+        <v>69</v>
+      </c>
+      <c r="C4" s="5">
+        <f>MIN(C3,B4)+мон!C4</f>
+        <v>78</v>
+      </c>
+      <c r="D4" s="5">
+        <f>MIN(D3,C4)+мон!D4</f>
+        <v>69</v>
+      </c>
+      <c r="E4" s="5">
+        <f>MIN(E3,D4)+мон!E4</f>
+        <v>82</v>
+      </c>
+      <c r="F4" s="5">
+        <f>MIN(F3,E4)+мон!F4</f>
+        <v>99</v>
+      </c>
+      <c r="G4" s="5">
+        <f>MIN(G3,F4)+мон!G4</f>
+        <v>117</v>
+      </c>
+      <c r="H4" s="5">
+        <f>MIN(H3,G4)+мон!H4</f>
+        <v>123</v>
+      </c>
+      <c r="I4" s="5">
+        <f>MIN(I3,H4)+мон!I4</f>
+        <v>133</v>
+      </c>
+      <c r="J4" s="5">
+        <f>MIN(J3,I4)+мон!J4</f>
+        <v>133</v>
+      </c>
+      <c r="K4" s="5">
+        <f>MIN(K3,J4)+мон!K4</f>
+        <v>139</v>
+      </c>
+      <c r="L4" s="5">
+        <f>MIN(L3,K4)+мон!L4</f>
+        <v>149</v>
+      </c>
+      <c r="M4" s="27">
+        <f>M3+мон!M4</f>
+        <v>155</v>
+      </c>
+      <c r="N4" s="5">
+        <f>MIN(N3,M4)+мон!N4</f>
+        <v>158</v>
+      </c>
+      <c r="O4" s="5">
+        <f>MIN(O3,N4)+мон!O4</f>
+        <v>165</v>
+      </c>
+      <c r="P4" s="5">
+        <f>MIN(P3,O4)+мон!P4</f>
+        <v>175</v>
+      </c>
+      <c r="Q4" s="5">
+        <f>MIN(Q3,P4)+мон!Q4</f>
+        <v>189</v>
+      </c>
+      <c r="R4" s="5">
+        <f>MIN(R3,Q4)+мон!R4</f>
+        <v>203</v>
+      </c>
+      <c r="S4" s="5">
+        <f>MIN(S3,R4)+мон!S4</f>
+        <v>210</v>
+      </c>
+      <c r="T4" s="8">
+        <f>MIN(T3,S4)+мон!T4</f>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f>A4+мон!A5</f>
+        <v>63</v>
+      </c>
+      <c r="B5" s="5">
+        <f>MIN(B4,A5)+мон!B5</f>
+        <v>70</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="25">
+        <f>G4+мон!G5</f>
+        <v>134</v>
+      </c>
+      <c r="H5" s="5">
+        <f>MIN(H4,G5)+мон!H5</f>
+        <v>138</v>
+      </c>
+      <c r="I5" s="5">
+        <f>MIN(I4,H5)+мон!I5</f>
+        <v>144</v>
+      </c>
+      <c r="J5" s="5">
+        <f>MIN(J4,I5)+мон!J5</f>
+        <v>152</v>
+      </c>
+      <c r="K5" s="5">
+        <f>MIN(K4,J5)+мон!K5</f>
+        <v>149</v>
+      </c>
+      <c r="L5" s="5">
+        <f>MIN(L4,K5)+мон!L5</f>
+        <v>154</v>
+      </c>
+      <c r="M5" s="27">
+        <f>M4+мон!M5</f>
+        <v>162</v>
+      </c>
+      <c r="N5" s="5">
+        <f>MIN(N4,M5)+мон!N5</f>
+        <v>163</v>
+      </c>
+      <c r="O5" s="5">
+        <f>MIN(O4,N5)+мон!O5</f>
+        <v>168</v>
+      </c>
+      <c r="P5" s="5">
+        <f>MIN(P4,O5)+мон!P5</f>
+        <v>187</v>
+      </c>
+      <c r="Q5" s="5">
+        <f>MIN(Q4,P5)+мон!Q5</f>
+        <v>196</v>
+      </c>
+      <c r="R5" s="5">
+        <f>MIN(R4,Q5)+мон!R5</f>
+        <v>204</v>
+      </c>
+      <c r="S5" s="5">
+        <f>MIN(S4,R5)+мон!S5</f>
+        <v>223</v>
+      </c>
+      <c r="T5" s="8">
+        <f>MIN(T4,S5)+мон!T5</f>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f>A5+мон!A6</f>
+        <v>82</v>
+      </c>
+      <c r="B6" s="5">
+        <f>MIN(B5,A6)+мон!B6</f>
+        <v>83</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="25">
+        <f>G5+мон!G6</f>
+        <v>144</v>
+      </c>
+      <c r="H6" s="5">
+        <f>MIN(H5,G6)+мон!H6</f>
+        <v>153</v>
+      </c>
+      <c r="I6" s="5">
+        <f>MIN(I5,H6)+мон!I6</f>
+        <v>149</v>
+      </c>
+      <c r="J6" s="5">
+        <f>MIN(J5,I6)+мон!J6</f>
+        <v>157</v>
+      </c>
+      <c r="K6" s="5">
+        <f>MIN(K5,J6)+мон!K6</f>
+        <v>169</v>
+      </c>
+      <c r="L6" s="5">
+        <f>MIN(L5,K6)+мон!L6</f>
+        <v>167</v>
+      </c>
+      <c r="M6" s="27">
+        <f>M5+мон!M6</f>
+        <v>182</v>
+      </c>
+      <c r="N6" s="5">
+        <f>MIN(N5,M6)+мон!N6</f>
+        <v>165</v>
+      </c>
+      <c r="O6" s="5">
+        <f>MIN(O5,N6)+мон!O6</f>
+        <v>176</v>
+      </c>
+      <c r="P6" s="5">
+        <f>MIN(P5,O6)+мон!P6</f>
+        <v>190</v>
+      </c>
+      <c r="Q6" s="5">
+        <f>MIN(Q5,P6)+мон!Q6</f>
+        <v>201</v>
+      </c>
+      <c r="R6" s="5">
+        <f>MIN(R5,Q6)+мон!R6</f>
+        <v>210</v>
+      </c>
+      <c r="S6" s="5">
+        <f>MIN(S5,R6)+мон!S6</f>
+        <v>213</v>
+      </c>
+      <c r="T6" s="8">
+        <f>MIN(T5,S6)+мон!T6</f>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f>A6+мон!A7</f>
+        <v>98</v>
+      </c>
+      <c r="B7" s="5">
+        <f>MIN(B6,A7)+мон!B7</f>
+        <v>92</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="25">
+        <f>G6+мон!G7</f>
+        <v>155</v>
+      </c>
+      <c r="H7" s="5">
+        <f>MIN(H6,G7)+мон!H7</f>
+        <v>159</v>
+      </c>
+      <c r="I7" s="5">
+        <f>MIN(I6,H7)+мон!I7</f>
+        <v>158</v>
+      </c>
+      <c r="J7" s="5">
+        <f>MIN(J6,I7)+мон!J7</f>
+        <v>176</v>
+      </c>
+      <c r="K7" s="5">
+        <f>MIN(K6,J7)+мон!K7</f>
+        <v>177</v>
+      </c>
+      <c r="L7" s="5">
+        <f>MIN(L6,K7)+мон!L7</f>
+        <v>178</v>
+      </c>
+      <c r="M7" s="27">
+        <f>M6+мон!M7</f>
+        <v>202</v>
+      </c>
+      <c r="N7" s="5">
+        <f>MIN(N6,M7)+мон!N7</f>
+        <v>168</v>
+      </c>
+      <c r="O7" s="5">
+        <f>MIN(O6,N7)+мон!O7</f>
+        <v>170</v>
+      </c>
+      <c r="P7" s="5">
+        <f>MIN(P6,O7)+мон!P7</f>
+        <v>184</v>
+      </c>
+      <c r="Q7" s="5">
+        <f>MIN(Q6,P7)+мон!Q7</f>
+        <v>186</v>
+      </c>
+      <c r="R7" s="5">
+        <f>MIN(R6,Q7)+мон!R7</f>
+        <v>192</v>
+      </c>
+      <c r="S7" s="5">
+        <f>MIN(S6,R7)+мон!S7</f>
+        <v>196</v>
+      </c>
+      <c r="T7" s="8">
+        <f>MIN(T6,S7)+мон!T7</f>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f>A7+мон!A8</f>
+        <v>114</v>
+      </c>
+      <c r="B8" s="5">
+        <f>MIN(B7,A8)+мон!B8</f>
+        <v>112</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="25">
+        <f>G7+мон!G8</f>
+        <v>173</v>
+      </c>
+      <c r="H8" s="5">
+        <f>MIN(H7,G8)+мон!H8</f>
+        <v>161</v>
+      </c>
+      <c r="I8" s="5">
+        <f>MIN(I7,H8)+мон!I8</f>
+        <v>168</v>
+      </c>
+      <c r="J8" s="10">
+        <f>MIN(J7,I8)+мон!J8</f>
+        <v>183</v>
+      </c>
+      <c r="K8" s="25">
+        <f>K7+мон!K8</f>
+        <v>186</v>
+      </c>
+      <c r="L8" s="5">
+        <f>MIN(L7,K8)+мон!L8</f>
+        <v>184</v>
+      </c>
+      <c r="M8" s="27">
+        <f>M7+мон!M8</f>
+        <v>220</v>
+      </c>
+      <c r="N8" s="5">
+        <f>MIN(N7,M8)+мон!N8</f>
+        <v>188</v>
+      </c>
+      <c r="O8" s="5">
+        <f>MIN(O7,N8)+мон!O8</f>
+        <v>188</v>
+      </c>
+      <c r="P8" s="5">
+        <f>MIN(P7,O8)+мон!P8</f>
+        <v>190</v>
+      </c>
+      <c r="Q8" s="5">
+        <f>MIN(Q7,P8)+мон!Q8</f>
+        <v>203</v>
+      </c>
+      <c r="R8" s="5">
+        <f>MIN(R7,Q8)+мон!R8</f>
+        <v>199</v>
+      </c>
+      <c r="S8" s="5">
+        <f>MIN(S7,R8)+мон!S8</f>
+        <v>201</v>
+      </c>
+      <c r="T8" s="8">
+        <f>MIN(T7,S8)+мон!T8</f>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <f>A8+мон!A9</f>
+        <v>120</v>
+      </c>
+      <c r="B9" s="5">
+        <f>MIN(B8,A9)+мон!B9</f>
+        <v>127</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="25">
+        <f>G8+мон!G9</f>
+        <v>176</v>
+      </c>
+      <c r="H9" s="5">
+        <f>MIN(H8,G9)+мон!H9</f>
+        <v>167</v>
+      </c>
+      <c r="I9" s="5">
+        <f>MIN(I8,H9)+мон!I9</f>
+        <v>187</v>
+      </c>
+      <c r="J9" s="10">
+        <f>MIN(J8,I9)+мон!J9</f>
+        <v>186</v>
+      </c>
+      <c r="K9" s="25">
+        <f>K8+мон!K9</f>
+        <v>191</v>
+      </c>
+      <c r="L9" s="5">
+        <f>MIN(L8,K9)+мон!L9</f>
+        <v>203</v>
+      </c>
+      <c r="M9" s="28">
+        <f>M8+мон!M9</f>
+        <v>237</v>
+      </c>
+      <c r="N9" s="9">
+        <f>MIN(N8,M9)+мон!N9</f>
+        <v>206</v>
+      </c>
+      <c r="O9" s="9">
+        <f>MIN(O8,N9)+мон!O9</f>
+        <v>195</v>
+      </c>
+      <c r="P9" s="9">
+        <f>MIN(P8,O9)+мон!P9</f>
+        <v>192</v>
+      </c>
+      <c r="Q9" s="9">
+        <f>MIN(Q8,P9)+мон!Q9</f>
+        <v>205</v>
+      </c>
+      <c r="R9" s="5">
+        <f>MIN(R8,Q9)+мон!R9</f>
+        <v>216</v>
+      </c>
+      <c r="S9" s="5">
+        <f>MIN(S8,R9)+мон!S9</f>
+        <v>212</v>
+      </c>
+      <c r="T9" s="8">
+        <f>MIN(T8,S9)+мон!T9</f>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f>A9+мон!A10</f>
+        <v>128</v>
+      </c>
+      <c r="B10" s="5">
+        <f>MIN(B9,A10)+мон!B10</f>
+        <v>129</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="25">
+        <f>G9+мон!G10</f>
+        <v>183</v>
+      </c>
+      <c r="H10" s="5">
+        <f>MIN(H9,G10)+мон!H10</f>
+        <v>183</v>
+      </c>
+      <c r="I10" s="5">
+        <f>MIN(I9,H10)+мон!I10</f>
+        <v>188</v>
+      </c>
+      <c r="J10" s="10">
+        <f>MIN(J9,I10)+мон!J10</f>
+        <v>190</v>
+      </c>
+      <c r="K10" s="25">
+        <f>K9+мон!K10</f>
+        <v>194</v>
+      </c>
+      <c r="L10" s="5">
+        <f>MIN(L9,K10)+мон!L10</f>
+        <v>205</v>
+      </c>
+      <c r="M10" s="25">
+        <f>L10+мон!M10</f>
+        <v>216</v>
+      </c>
+      <c r="N10" s="25">
+        <f>M10+мон!N10</f>
+        <v>234</v>
+      </c>
+      <c r="O10" s="25">
+        <f>N10+мон!O10</f>
+        <v>249</v>
+      </c>
+      <c r="P10" s="25">
+        <f>O10+мон!P10</f>
+        <v>260</v>
+      </c>
+      <c r="Q10" s="25">
+        <f>P10+мон!Q10</f>
+        <v>268</v>
+      </c>
+      <c r="R10" s="5">
+        <f>MIN(R9,Q10)+мон!R10</f>
+        <v>229</v>
+      </c>
+      <c r="S10" s="5">
+        <f>MIN(S9,R10)+мон!S10</f>
+        <v>214</v>
+      </c>
+      <c r="T10" s="8">
+        <f>MIN(T9,S10)+мон!T10</f>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <f>A10+мон!A11</f>
+        <v>147</v>
+      </c>
+      <c r="B11" s="5">
+        <f>MIN(B10,A11)+мон!B11</f>
+        <v>145</v>
+      </c>
+      <c r="C11" s="5">
+        <f>MIN(C10,B11)+мон!C11</f>
+        <v>161</v>
+      </c>
+      <c r="D11" s="5">
+        <f>MIN(D10,C11)+мон!D11</f>
+        <v>171</v>
+      </c>
+      <c r="E11" s="5">
+        <f>MIN(E10,D11)+мон!E11</f>
+        <v>186</v>
+      </c>
+      <c r="F11" s="5">
+        <f>MIN(F10,E11)+мон!F11</f>
+        <v>206</v>
+      </c>
+      <c r="G11" s="15">
+        <f>MIN(G10,F11)+мон!G11</f>
+        <v>194</v>
+      </c>
+      <c r="H11" s="15">
+        <f>MIN(H10,G11)+мон!H11</f>
+        <v>195</v>
+      </c>
+      <c r="I11" s="15">
+        <f>MIN(I10,H11)+мон!I11</f>
+        <v>202</v>
+      </c>
+      <c r="J11" s="16">
+        <f>MIN(J10,I11)+мон!J11</f>
+        <v>202</v>
+      </c>
+      <c r="K11" s="25">
+        <f>K10+мон!K11</f>
+        <v>212</v>
+      </c>
+      <c r="L11" s="15">
+        <f>MIN(L10,K11)+мон!L11</f>
+        <v>222</v>
+      </c>
+      <c r="M11" s="15">
+        <f>MIN(M10,L11)+мон!M11</f>
+        <v>234</v>
+      </c>
+      <c r="N11" s="15">
+        <f>MIN(N10,M11)+мон!N11</f>
+        <v>253</v>
+      </c>
+      <c r="O11" s="15">
+        <f>MIN(O10,N11)+мон!O11</f>
+        <v>266</v>
+      </c>
+      <c r="P11" s="15">
+        <f>MIN(P10,O11)+мон!P11</f>
+        <v>267</v>
+      </c>
+      <c r="Q11" s="15">
+        <f>MIN(Q10,P11)+мон!Q11</f>
+        <v>282</v>
+      </c>
+      <c r="R11" s="15">
+        <f>MIN(R10,Q11)+мон!R11</f>
+        <v>240</v>
+      </c>
+      <c r="S11" s="15">
+        <f>MIN(S10,R11)+мон!S11</f>
+        <v>223</v>
+      </c>
+      <c r="T11" s="17">
+        <f>MIN(T10,S11)+мон!T11</f>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <f>A11+мон!A12</f>
+        <v>167</v>
+      </c>
+      <c r="B12" s="5">
+        <f>MIN(B11,A12)+мон!B12</f>
+        <v>159</v>
+      </c>
+      <c r="C12" s="5">
+        <f>MIN(C11,B12)+мон!C12</f>
+        <v>170</v>
+      </c>
+      <c r="D12" s="5">
+        <f>MIN(D11,C12)+мон!D12</f>
+        <v>179</v>
+      </c>
+      <c r="E12" s="5">
+        <f>MIN(E11,D12)+мон!E12</f>
+        <v>190</v>
+      </c>
+      <c r="F12" s="5">
+        <f>MIN(F11,E12)+мон!F12</f>
+        <v>193</v>
+      </c>
+      <c r="G12" s="15">
+        <f>MIN(G11,F12)+мон!G12</f>
+        <v>210</v>
+      </c>
+      <c r="H12" s="18">
+        <f>MIN(H11,G12)+мон!H12</f>
+        <v>215</v>
+      </c>
+      <c r="I12" s="18">
+        <f>MIN(I11,H12)+мон!I12</f>
+        <v>220</v>
+      </c>
+      <c r="J12" s="31">
+        <f>MIN(J11,I12)+мон!J12</f>
+        <v>210</v>
+      </c>
+      <c r="K12" s="25">
+        <f>K11+мон!K12</f>
+        <v>222</v>
+      </c>
+      <c r="L12" s="15">
+        <f>MIN(L11,K12)+мон!L12</f>
+        <v>225</v>
+      </c>
+      <c r="M12" s="15">
+        <f>MIN(M11,L12)+мон!M12</f>
+        <v>232</v>
+      </c>
+      <c r="N12" s="15">
+        <f>MIN(N11,M12)+мон!N12</f>
+        <v>238</v>
+      </c>
+      <c r="O12" s="15">
+        <f>MIN(O11,N12)+мон!O12</f>
+        <v>251</v>
+      </c>
+      <c r="P12" s="15">
+        <f>MIN(P11,O12)+мон!P12</f>
+        <v>270</v>
+      </c>
+      <c r="Q12" s="15">
+        <f>MIN(Q11,P12)+мон!Q12</f>
+        <v>281</v>
+      </c>
+      <c r="R12" s="15">
+        <f>MIN(R11,Q12)+мон!R12</f>
+        <v>242</v>
+      </c>
+      <c r="S12" s="15">
+        <f>MIN(S11,R12)+мон!S12</f>
+        <v>239</v>
+      </c>
+      <c r="T12" s="17">
+        <f>MIN(T11,S12)+мон!T12</f>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <f>A12+мон!A13</f>
+        <v>178</v>
+      </c>
+      <c r="B13" s="5">
+        <f>MIN(B12,A13)+мон!B13</f>
+        <v>162</v>
+      </c>
+      <c r="C13" s="5">
+        <f>MIN(C12,B13)+мон!C13</f>
+        <v>178</v>
+      </c>
+      <c r="D13" s="5">
+        <f>MIN(D12,C13)+мон!D13</f>
+        <v>193</v>
+      </c>
+      <c r="E13" s="5">
+        <f>MIN(E12,D13)+мон!E13</f>
+        <v>207</v>
+      </c>
+      <c r="F13" s="5">
+        <f>MIN(F12,E13)+мон!F13</f>
+        <v>195</v>
+      </c>
+      <c r="G13" s="15">
+        <f>MIN(G12,F13)+мон!G13</f>
+        <v>214</v>
+      </c>
+      <c r="H13" s="25">
+        <f>G13+мон!H13</f>
+        <v>216</v>
+      </c>
+      <c r="I13" s="25">
+        <f>H13+мон!I13</f>
+        <v>226</v>
+      </c>
+      <c r="J13" s="25">
+        <f>I13+мон!J13</f>
+        <v>235</v>
+      </c>
+      <c r="K13" s="15">
+        <f>MIN(K12,J13)+мон!K13</f>
+        <v>224</v>
+      </c>
+      <c r="L13" s="15">
+        <f>MIN(L12,K13)+мон!L13</f>
+        <v>230</v>
+      </c>
+      <c r="M13" s="15">
+        <f>MIN(M12,L13)+мон!M13</f>
+        <v>245</v>
+      </c>
+      <c r="N13" s="15">
+        <f>MIN(N12,M13)+мон!N13</f>
+        <v>255</v>
+      </c>
+      <c r="O13" s="15">
+        <f>MIN(O12,N13)+мон!O13</f>
+        <v>270</v>
+      </c>
+      <c r="P13" s="15">
+        <f>MIN(P12,O13)+мон!P13</f>
+        <v>289</v>
+      </c>
+      <c r="Q13" s="15">
+        <f>MIN(Q12,P13)+мон!Q13</f>
+        <v>285</v>
+      </c>
+      <c r="R13" s="15">
+        <f>MIN(R12,Q13)+мон!R13</f>
+        <v>257</v>
+      </c>
+      <c r="S13" s="15">
+        <f>MIN(S12,R13)+мон!S13</f>
+        <v>242</v>
+      </c>
+      <c r="T13" s="17">
+        <f>MIN(T12,S13)+мон!T13</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f>A13+мон!A14</f>
+        <v>194</v>
+      </c>
+      <c r="B14" s="5">
+        <f>MIN(B13,A14)+мон!B14</f>
+        <v>167</v>
+      </c>
+      <c r="C14" s="5">
+        <f>MIN(C13,B14)+мон!C14</f>
+        <v>177</v>
+      </c>
+      <c r="D14" s="5">
+        <f>MIN(D13,C14)+мон!D14</f>
+        <v>191</v>
+      </c>
+      <c r="E14" s="5">
+        <f>MIN(E13,D14)+мон!E14</f>
+        <v>207</v>
+      </c>
+      <c r="F14" s="5">
+        <f>MIN(F13,E14)+мон!F14</f>
+        <v>207</v>
+      </c>
+      <c r="G14" s="15">
+        <f>MIN(G13,F14)+мон!G14</f>
+        <v>214</v>
+      </c>
+      <c r="H14" s="15">
+        <f>MIN(H13,G14)+мон!H14</f>
+        <v>222</v>
+      </c>
+      <c r="I14" s="15">
+        <f>MIN(I13,H14)+мон!I14</f>
+        <v>238</v>
+      </c>
+      <c r="J14" s="15">
+        <f>MIN(J13,I14)+мон!J14</f>
+        <v>237</v>
+      </c>
+      <c r="K14" s="15">
+        <f>MIN(K13,J14)+мон!K14</f>
+        <v>226</v>
+      </c>
+      <c r="L14" s="15">
+        <f>MIN(L13,K14)+мон!L14</f>
+        <v>228</v>
+      </c>
+      <c r="M14" s="15">
+        <f>MIN(M13,L14)+мон!M14</f>
+        <v>237</v>
+      </c>
+      <c r="N14" s="15">
+        <f>MIN(N13,M14)+мон!N14</f>
+        <v>247</v>
+      </c>
+      <c r="O14" s="15">
+        <f>MIN(O13,N14)+мон!O14</f>
+        <v>266</v>
+      </c>
+      <c r="P14" s="15">
+        <f>MIN(P13,O14)+мон!P14</f>
+        <v>270</v>
+      </c>
+      <c r="Q14" s="15">
+        <f>MIN(Q13,P14)+мон!Q14</f>
+        <v>272</v>
+      </c>
+      <c r="R14" s="15">
+        <f>MIN(R13,Q14)+мон!R14</f>
+        <v>261</v>
+      </c>
+      <c r="S14" s="15">
+        <f>MIN(S13,R14)+мон!S14</f>
+        <v>259</v>
+      </c>
+      <c r="T14" s="17">
+        <f>MIN(T13,S14)+мон!T14</f>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <f>A14+мон!A15</f>
+        <v>210</v>
+      </c>
+      <c r="B15" s="5">
+        <f>MIN(B14,A15)+мон!B15</f>
+        <v>181</v>
+      </c>
+      <c r="C15" s="5">
+        <f>MIN(C14,B15)+мон!C15</f>
+        <v>186</v>
+      </c>
+      <c r="D15" s="5">
+        <f>MIN(D14,C15)+мон!D15</f>
+        <v>191</v>
+      </c>
+      <c r="E15" s="5">
+        <f>MIN(E14,D15)+мон!E15</f>
+        <v>194</v>
+      </c>
+      <c r="F15" s="5">
+        <f>MIN(F14,E15)+мон!F15</f>
+        <v>197</v>
+      </c>
+      <c r="G15" s="15">
+        <f>MIN(G14,F15)+мон!G15</f>
+        <v>215</v>
+      </c>
+      <c r="H15" s="15">
+        <f>MIN(H14,G15)+мон!H15</f>
+        <v>229</v>
+      </c>
+      <c r="I15" s="15">
+        <f>MIN(I14,H15)+мон!I15</f>
+        <v>240</v>
+      </c>
+      <c r="J15" s="15">
+        <f>MIN(J14,I15)+мон!J15</f>
+        <v>241</v>
+      </c>
+      <c r="K15" s="15">
+        <f>MIN(K14,J15)+мон!K15</f>
+        <v>230</v>
+      </c>
+      <c r="L15" s="15">
+        <f>MIN(L14,K15)+мон!L15</f>
+        <v>246</v>
+      </c>
+      <c r="M15" s="15">
+        <f>MIN(M14,L15)+мон!M15</f>
+        <v>253</v>
+      </c>
+      <c r="N15" s="15">
+        <f>MIN(N14,M15)+мон!N15</f>
+        <v>250</v>
+      </c>
+      <c r="O15" s="15">
+        <f>MIN(O14,N15)+мон!O15</f>
+        <v>264</v>
+      </c>
+      <c r="P15" s="15">
+        <f>MIN(P14,O15)+мон!P15</f>
+        <v>275</v>
+      </c>
+      <c r="Q15" s="15">
+        <f>MIN(Q14,P15)+мон!Q15</f>
+        <v>277</v>
+      </c>
+      <c r="R15" s="15">
+        <f>MIN(R14,Q15)+мон!R15</f>
+        <v>279</v>
+      </c>
+      <c r="S15" s="15">
+        <f>MIN(S14,R15)+мон!S15</f>
+        <v>275</v>
+      </c>
+      <c r="T15" s="17">
+        <f>MIN(T14,S15)+мон!T15</f>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f>A15+мон!A16</f>
+        <v>229</v>
+      </c>
+      <c r="B16" s="5">
+        <f>MIN(B15,A16)+мон!B16</f>
+        <v>198</v>
+      </c>
+      <c r="C16" s="5">
+        <f>MIN(C15,B16)+мон!C16</f>
+        <v>192</v>
+      </c>
+      <c r="D16" s="5">
+        <f>MIN(D15,C16)+мон!D16</f>
+        <v>193</v>
+      </c>
+      <c r="E16" s="11">
+        <f>MIN(E15,D16)+мон!E16</f>
+        <v>197</v>
+      </c>
+      <c r="F16" s="11">
+        <f>MIN(F15,E16)+мон!F16</f>
+        <v>210</v>
+      </c>
+      <c r="G16" s="20">
+        <f>MIN(G15,F16)+мон!G16</f>
+        <v>221</v>
+      </c>
+      <c r="H16" s="21">
+        <f>MIN(H15,G16)+мон!H16</f>
+        <v>238</v>
+      </c>
+      <c r="I16" s="25">
+        <f>I15+мон!I16</f>
+        <v>245</v>
+      </c>
+      <c r="J16" s="15">
+        <f>MIN(J15,I16)+мон!J16</f>
+        <v>253</v>
+      </c>
+      <c r="K16" s="15">
+        <f>MIN(K15,J16)+мон!K16</f>
+        <v>236</v>
+      </c>
+      <c r="L16" s="15">
+        <f>MIN(L15,K16)+мон!L16</f>
+        <v>252</v>
+      </c>
+      <c r="M16" s="15">
+        <f>MIN(M15,L16)+мон!M16</f>
+        <v>269</v>
+      </c>
+      <c r="N16" s="15">
+        <f>MIN(N15,M16)+мон!N16</f>
+        <v>260</v>
+      </c>
+      <c r="O16" s="15">
+        <f>MIN(O15,N16)+мон!O16</f>
+        <v>275</v>
+      </c>
+      <c r="P16" s="15">
+        <f>MIN(P15,O16)+мон!P16</f>
+        <v>293</v>
+      </c>
+      <c r="Q16" s="15">
+        <f>MIN(Q15,P16)+мон!Q16</f>
+        <v>289</v>
+      </c>
+      <c r="R16" s="15">
+        <f>MIN(R15,Q16)+мон!R16</f>
+        <v>287</v>
+      </c>
+      <c r="S16" s="15">
+        <f>MIN(S15,R16)+мон!S16</f>
+        <v>291</v>
+      </c>
+      <c r="T16" s="17">
+        <f>MIN(T15,S16)+мон!T16</f>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f>A16+мон!A17</f>
+        <v>239</v>
+      </c>
+      <c r="B17" s="5">
+        <f>MIN(B16,A17)+мон!B17</f>
+        <v>203</v>
+      </c>
+      <c r="C17" s="5">
+        <f>MIN(C16,B17)+мон!C17</f>
+        <v>196</v>
+      </c>
+      <c r="D17" s="5">
+        <f>MIN(D16,C17)+мон!D17</f>
+        <v>211</v>
+      </c>
+      <c r="E17" s="5">
+        <f>MIN(E16,D17)+мон!E17</f>
+        <v>213</v>
+      </c>
+      <c r="F17" s="5">
+        <f>MIN(F16,E17)+мон!F17</f>
+        <v>221</v>
+      </c>
+      <c r="G17" s="15">
+        <f>MIN(G16,F17)+мон!G17</f>
+        <v>233</v>
+      </c>
+      <c r="H17" s="16">
+        <f>MIN(H16,G17)+мон!H17</f>
+        <v>244</v>
+      </c>
+      <c r="I17" s="25">
+        <f>I16+мон!I17</f>
+        <v>254</v>
+      </c>
+      <c r="J17" s="15">
+        <f>MIN(J16,I17)+мон!J17</f>
+        <v>262</v>
+      </c>
+      <c r="K17" s="15">
+        <f>MIN(K16,J17)+мон!K17</f>
+        <v>250</v>
+      </c>
+      <c r="L17" s="15">
+        <f>MIN(L16,K17)+мон!L17</f>
+        <v>263</v>
+      </c>
+      <c r="M17" s="15">
+        <f>MIN(M16,L17)+мон!M17</f>
+        <v>281</v>
+      </c>
+      <c r="N17" s="15">
+        <f>MIN(N16,M17)+мон!N17</f>
+        <v>264</v>
+      </c>
+      <c r="O17" s="15">
+        <f>MIN(O16,N17)+мон!O17</f>
+        <v>276</v>
+      </c>
+      <c r="P17" s="15">
+        <f>MIN(P16,O17)+мон!P17</f>
+        <v>285</v>
+      </c>
+      <c r="Q17" s="15">
+        <f>MIN(Q16,P17)+мон!Q17</f>
+        <v>290</v>
+      </c>
+      <c r="R17" s="15">
+        <f>MIN(R16,Q17)+мон!R17</f>
+        <v>300</v>
+      </c>
+      <c r="S17" s="15">
+        <f>MIN(S16,R17)+мон!S17</f>
+        <v>307</v>
+      </c>
+      <c r="T17" s="17">
+        <f>MIN(T16,S17)+мон!T17</f>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f>A17+мон!A18</f>
+        <v>254</v>
+      </c>
+      <c r="B18" s="5">
+        <f>MIN(B17,A18)+мон!B18</f>
+        <v>218</v>
+      </c>
+      <c r="C18" s="5">
+        <f>MIN(C17,B18)+мон!C18</f>
+        <v>198</v>
+      </c>
+      <c r="D18" s="5">
+        <f>MIN(D17,C18)+мон!D18</f>
+        <v>206</v>
+      </c>
+      <c r="E18" s="5">
+        <f>MIN(E17,D18)+мон!E18</f>
+        <v>208</v>
+      </c>
+      <c r="F18" s="5">
+        <f>MIN(F17,E18)+мон!F18</f>
+        <v>212</v>
+      </c>
+      <c r="G18" s="15">
+        <f>MIN(G17,F18)+мон!G18</f>
+        <v>215</v>
+      </c>
+      <c r="H18" s="16">
+        <f>MIN(H17,G18)+мон!H18</f>
+        <v>223</v>
+      </c>
+      <c r="I18" s="25">
+        <f>I17+мон!I18</f>
+        <v>267</v>
+      </c>
+      <c r="J18" s="15">
+        <f>MIN(J17,I18)+мон!J18</f>
+        <v>272</v>
+      </c>
+      <c r="K18" s="15">
+        <f>MIN(K17,J18)+мон!K18</f>
+        <v>255</v>
+      </c>
+      <c r="L18" s="15">
+        <f>MIN(L17,K18)+мон!L18</f>
+        <v>264</v>
+      </c>
+      <c r="M18" s="15">
+        <f>MIN(M17,L18)+мон!M18</f>
+        <v>273</v>
+      </c>
+      <c r="N18" s="15">
+        <f>MIN(N17,M18)+мон!N18</f>
+        <v>272</v>
+      </c>
+      <c r="O18" s="15">
+        <f>MIN(O17,N18)+мон!O18</f>
+        <v>282</v>
+      </c>
+      <c r="P18" s="15">
+        <f>MIN(P17,O18)+мон!P18</f>
+        <v>299</v>
+      </c>
+      <c r="Q18" s="15">
+        <f>MIN(Q17,P18)+мон!Q18</f>
+        <v>306</v>
+      </c>
+      <c r="R18" s="15">
+        <f>MIN(R17,Q18)+мон!R18</f>
+        <v>318</v>
+      </c>
+      <c r="S18" s="15">
+        <f>MIN(S17,R18)+мон!S18</f>
+        <v>316</v>
+      </c>
+      <c r="T18" s="17">
+        <f>MIN(T17,S18)+мон!T18</f>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f>A18+мон!A19</f>
+        <v>267</v>
+      </c>
+      <c r="B19" s="5">
+        <f>MIN(B18,A19)+мон!B19</f>
+        <v>222</v>
+      </c>
+      <c r="C19" s="5">
+        <f>MIN(C18,B19)+мон!C19</f>
+        <v>216</v>
+      </c>
+      <c r="D19" s="5">
+        <f>MIN(D18,C19)+мон!D19</f>
+        <v>219</v>
+      </c>
+      <c r="E19" s="5">
+        <f>MIN(E18,D19)+мон!E19</f>
+        <v>219</v>
+      </c>
+      <c r="F19" s="5">
+        <f>MIN(F18,E19)+мон!F19</f>
+        <v>225</v>
+      </c>
+      <c r="G19" s="15">
+        <f>MIN(G18,F19)+мон!G19</f>
+        <v>225</v>
+      </c>
+      <c r="H19" s="16">
+        <f>MIN(H18,G19)+мон!H19</f>
+        <v>232</v>
+      </c>
+      <c r="I19" s="25">
+        <f>I18+мон!I19</f>
+        <v>279</v>
+      </c>
+      <c r="J19" s="15">
+        <f>MIN(J18,I19)+мон!J19</f>
+        <v>282</v>
+      </c>
+      <c r="K19" s="15">
+        <f>MIN(K18,J19)+мон!K19</f>
+        <v>272</v>
+      </c>
+      <c r="L19" s="15">
+        <f>MIN(L18,K19)+мон!L19</f>
+        <v>269</v>
+      </c>
+      <c r="M19" s="15">
+        <f>MIN(M18,L19)+мон!M19</f>
+        <v>284</v>
+      </c>
+      <c r="N19" s="15">
+        <f>MIN(N18,M19)+мон!N19</f>
+        <v>286</v>
+      </c>
+      <c r="O19" s="15">
+        <f>MIN(O18,N19)+мон!O19</f>
+        <v>294</v>
+      </c>
+      <c r="P19" s="15">
+        <f>MIN(P18,O19)+мон!P19</f>
+        <v>303</v>
+      </c>
+      <c r="Q19" s="15">
+        <f>MIN(Q18,P19)+мон!Q19</f>
+        <v>322</v>
+      </c>
+      <c r="R19" s="15">
+        <f>MIN(R18,Q19)+мон!R19</f>
+        <v>335</v>
+      </c>
+      <c r="S19" s="15">
+        <f>MIN(S18,R19)+мон!S19</f>
+        <v>333</v>
+      </c>
+      <c r="T19" s="17">
+        <f>MIN(T18,S19)+мон!T19</f>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <f>A19+мон!A20</f>
+        <v>286</v>
+      </c>
+      <c r="B20" s="3">
+        <f>MIN(B19,A20)+мон!B20</f>
+        <v>237</v>
+      </c>
+      <c r="C20" s="3">
+        <f>MIN(C19,B20)+мон!C20</f>
+        <v>236</v>
+      </c>
+      <c r="D20" s="3">
+        <f>MIN(D19,C20)+мон!D20</f>
+        <v>226</v>
+      </c>
+      <c r="E20" s="3">
+        <f>MIN(E19,D20)+мон!E20</f>
+        <v>237</v>
+      </c>
+      <c r="F20" s="3">
+        <f>MIN(F19,E20)+мон!F20</f>
+        <v>242</v>
+      </c>
+      <c r="G20" s="22">
+        <f>MIN(G19,F20)+мон!G20</f>
+        <v>241</v>
+      </c>
+      <c r="H20" s="29">
+        <f>MIN(H19,G20)+мон!H20</f>
+        <v>240</v>
+      </c>
+      <c r="I20" s="26">
+        <f>I19+мон!I20</f>
+        <v>281</v>
+      </c>
+      <c r="J20" s="22">
+        <f>MIN(J19,I20)+мон!J20</f>
+        <v>284</v>
+      </c>
+      <c r="K20" s="22">
+        <f>MIN(K19,J20)+мон!K20</f>
+        <v>286</v>
+      </c>
+      <c r="L20" s="22">
+        <f>MIN(L19,K20)+мон!L20</f>
+        <v>278</v>
+      </c>
+      <c r="M20" s="22">
+        <f>MIN(M19,L20)+мон!M20</f>
+        <v>282</v>
+      </c>
+      <c r="N20" s="22">
+        <f>MIN(N19,M20)+мон!N20</f>
+        <v>291</v>
+      </c>
+      <c r="O20" s="22">
+        <f>MIN(O19,N20)+мон!O20</f>
+        <v>299</v>
+      </c>
+      <c r="P20" s="22">
+        <f>MIN(P19,O20)+мон!P20</f>
+        <v>310</v>
+      </c>
+      <c r="Q20" s="22">
+        <f>MIN(Q19,P20)+мон!Q20</f>
+        <v>326</v>
+      </c>
+      <c r="R20" s="22">
+        <f>MIN(R19,Q20)+мон!R20</f>
+        <v>331</v>
+      </c>
+      <c r="S20" s="22">
+        <f>MIN(S19,R20)+мон!S20</f>
+        <v>341</v>
+      </c>
+      <c r="T20" s="30">
+        <f>MIN(T19,S20)+мон!T20</f>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <v>588</v>
+      </c>
+      <c r="N25">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>